--- a/biology/Zoologie/Conus_crocatus/Conus_crocatus.xlsx
+++ b/biology/Zoologie/Conus_crocatus/Conus_crocatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus crocatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 21 mm et 82 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans le Pacifique occidental ; au large de la Thaïlande occidentale ; dans l'océan Indien, au large de Madagascar et de Maurice.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve du Japon aux îles Marshall, du Mozambique à Madagascar, aux Seychelles, aux Mascareignes, à Samoa, en Papouasie-Nouvelle-Guinée, en Nouvelle-Calédonie, dans les îles Salomon et le long de la côte ouest de la Thaïlande et de la côte est du Queensland en Australie. Il s'agit d'une espèce à large aire de répartition et elle est localement abondante. Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -573,25 +587,170 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve du Japon aux îles Marshall, du Mozambique à Madagascar, aux Seychelles, aux Mascareignes, à Samoa, en Papouasie-Nouvelle-Guinée, en Nouvelle-Calédonie, dans les îles Salomon et le long de la côte ouest de la Thaïlande et de la côte est du Queensland en Australie. Il s'agit d'une espèce à large aire de répartition et elle est localement abondante. Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_crocatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_crocatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus crocatus a été décrite pour la première fois en 1810 par le naturaliste français Jean-Baptiste Lamarck (1744-1829) dans la publication intitulée « Annales du Muséum d'Histoire Naturelle »[2],[3].
-Synonymes
-Conus (Darioconus) crocatus Lamarck, 1810 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus crocatus a été décrite pour la première fois en 1810 par le naturaliste français Jean-Baptiste Lamarck (1744-1829) dans la publication intitulée « Annales du Muséum d'Histoire Naturelle »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_crocatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_crocatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Darioconus) crocatus Lamarck, 1810 · appellation alternative
 Conus crocatus magister Doiteau, 1981 · non accepté
 Darioconus crocatus (Lamarck, 1810) · non accepté
-Darioconus crocatus crocatus (Lamarck, 1810) · non accepté
-Sous-espèces
-Conus crocatus crocatus Lamarck, 1810
+Darioconus crocatus crocatus (Lamarck, 1810) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_crocatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_crocatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Conus crocatus crocatus Lamarck, 1810
 Conus crocatus pseudomagister (Allary &amp; T. Cossignani, 2016)
 Conus crocatus magister Doiteau, 1981, accepté en tant que Conus crocatus Lamarck, 1810
-Conus crocatus thailandis da Motta, 1978, accepté en tant que Conus thailandis da Motta, 1978
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus crocatus dans les principales bases sont les suivants :
+Conus crocatus thailandis da Motta, 1978, accepté en tant que Conus thailandis da Motta, 1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conus_crocatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_crocatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus crocatus dans les principales bases sont les suivants :
 BOLD : 200094 - CoL : 5ZXP2 - GBIF : 5857089 - iNaturalist : 431925 - IRMNG : 11812024 - NCBI : 590209 - TAXREF : 91981 - UICN : 192729 - WoRMS : 426467
 </t>
         </is>
